--- a/O2S InsuranceExpertise/Documents/Danh Muc Giam Dinh/NgayGiuongBV.xlsx
+++ b/O2S InsuranceExpertise/Documents/Danh Muc Giam Dinh/NgayGiuongBV.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Giường" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Giường!$A$1:$O$339</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1376,11 +1379,13 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1736,10 +1741,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="C361" sqref="C361"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F214" sqref="F214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,7 +1812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1847,7 +1853,7 @@
       </c>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1888,7 +1894,7 @@
       </c>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1929,7 +1935,7 @@
       </c>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1970,7 +1976,7 @@
       </c>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2011,7 +2017,7 @@
       </c>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2052,7 +2058,7 @@
       </c>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2093,7 +2099,7 @@
       </c>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2134,7 +2140,7 @@
       </c>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2175,7 +2181,7 @@
       </c>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2216,7 +2222,7 @@
       </c>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2257,7 +2263,7 @@
       </c>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2298,7 +2304,7 @@
       </c>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:15" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2339,7 +2345,7 @@
       </c>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2380,7 +2386,7 @@
       </c>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2421,7 +2427,7 @@
       </c>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2462,7 +2468,7 @@
       </c>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2503,7 +2509,7 @@
       </c>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2544,7 +2550,7 @@
       </c>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2585,7 +2591,7 @@
       </c>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2626,7 +2632,7 @@
       </c>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2667,7 +2673,7 @@
       </c>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2708,7 +2714,7 @@
       </c>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2749,7 +2755,7 @@
       </c>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2790,7 +2796,7 @@
       </c>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2872,7 +2878,7 @@
       </c>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2913,7 +2919,7 @@
       </c>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2954,7 +2960,7 @@
       </c>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2995,7 +3001,7 @@
       </c>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3036,7 +3042,7 @@
       </c>
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3077,7 +3083,7 @@
       </c>
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3118,7 +3124,7 @@
       </c>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3159,7 +3165,7 @@
       </c>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3200,7 +3206,7 @@
       </c>
       <c r="O35" s="5"/>
     </row>
-    <row r="36" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3241,7 +3247,7 @@
       </c>
       <c r="O36" s="5"/>
     </row>
-    <row r="37" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3282,7 +3288,7 @@
       </c>
       <c r="O37" s="5"/>
     </row>
-    <row r="38" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3323,7 +3329,7 @@
       </c>
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3364,7 +3370,7 @@
       </c>
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3405,7 +3411,7 @@
       </c>
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3446,7 +3452,7 @@
       </c>
       <c r="O41" s="5"/>
     </row>
-    <row r="42" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3487,7 +3493,7 @@
       </c>
       <c r="O42" s="5"/>
     </row>
-    <row r="43" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3528,7 +3534,7 @@
       </c>
       <c r="O43" s="5"/>
     </row>
-    <row r="44" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3569,7 +3575,7 @@
       </c>
       <c r="O44" s="5"/>
     </row>
-    <row r="45" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3610,7 +3616,7 @@
       </c>
       <c r="O45" s="5"/>
     </row>
-    <row r="46" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3651,7 +3657,7 @@
       </c>
       <c r="O46" s="5"/>
     </row>
-    <row r="47" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3692,7 +3698,7 @@
       </c>
       <c r="O47" s="5"/>
     </row>
-    <row r="48" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3733,7 +3739,7 @@
       </c>
       <c r="O48" s="5"/>
     </row>
-    <row r="49" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3774,7 +3780,7 @@
       </c>
       <c r="O49" s="5"/>
     </row>
-    <row r="50" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3815,7 +3821,7 @@
       </c>
       <c r="O50" s="5"/>
     </row>
-    <row r="51" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3856,7 +3862,7 @@
       </c>
       <c r="O51" s="5"/>
     </row>
-    <row r="52" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3897,7 +3903,7 @@
       </c>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3938,7 +3944,7 @@
       </c>
       <c r="O53" s="5"/>
     </row>
-    <row r="54" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3979,7 +3985,7 @@
       </c>
       <c r="O54" s="5"/>
     </row>
-    <row r="55" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -4020,7 +4026,7 @@
       </c>
       <c r="O55" s="5"/>
     </row>
-    <row r="56" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -4061,7 +4067,7 @@
       </c>
       <c r="O56" s="5"/>
     </row>
-    <row r="57" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -4102,7 +4108,7 @@
       </c>
       <c r="O57" s="5"/>
     </row>
-    <row r="58" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -4143,7 +4149,7 @@
       </c>
       <c r="O58" s="5"/>
     </row>
-    <row r="59" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -4184,7 +4190,7 @@
       </c>
       <c r="O59" s="5"/>
     </row>
-    <row r="60" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -4225,7 +4231,7 @@
       </c>
       <c r="O60" s="5"/>
     </row>
-    <row r="61" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -4266,7 +4272,7 @@
       </c>
       <c r="O61" s="5"/>
     </row>
-    <row r="62" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -4307,7 +4313,7 @@
       </c>
       <c r="O62" s="5"/>
     </row>
-    <row r="63" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -4348,7 +4354,7 @@
       </c>
       <c r="O63" s="5"/>
     </row>
-    <row r="64" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -4389,7 +4395,7 @@
       </c>
       <c r="O64" s="5"/>
     </row>
-    <row r="65" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -4430,7 +4436,7 @@
       </c>
       <c r="O65" s="5"/>
     </row>
-    <row r="66" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -4471,7 +4477,7 @@
       </c>
       <c r="O66" s="5"/>
     </row>
-    <row r="67" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -4512,7 +4518,7 @@
       </c>
       <c r="O67" s="5"/>
     </row>
-    <row r="68" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -4553,7 +4559,7 @@
       </c>
       <c r="O68" s="5"/>
     </row>
-    <row r="69" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -4594,7 +4600,7 @@
       </c>
       <c r="O69" s="5"/>
     </row>
-    <row r="70" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -4635,7 +4641,7 @@
       </c>
       <c r="O70" s="5"/>
     </row>
-    <row r="71" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -4676,7 +4682,7 @@
       </c>
       <c r="O71" s="5"/>
     </row>
-    <row r="72" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -4717,7 +4723,7 @@
       </c>
       <c r="O72" s="5"/>
     </row>
-    <row r="73" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -4758,7 +4764,7 @@
       </c>
       <c r="O73" s="5"/>
     </row>
-    <row r="74" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -4799,7 +4805,7 @@
       </c>
       <c r="O74" s="5"/>
     </row>
-    <row r="75" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -4840,7 +4846,7 @@
       </c>
       <c r="O75" s="5"/>
     </row>
-    <row r="76" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -4881,7 +4887,7 @@
       </c>
       <c r="O76" s="5"/>
     </row>
-    <row r="77" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -4922,7 +4928,7 @@
       </c>
       <c r="O77" s="5"/>
     </row>
-    <row r="78" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -4963,7 +4969,7 @@
       </c>
       <c r="O78" s="5"/>
     </row>
-    <row r="79" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -5004,7 +5010,7 @@
       </c>
       <c r="O79" s="5"/>
     </row>
-    <row r="80" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -5045,7 +5051,7 @@
       </c>
       <c r="O80" s="5"/>
     </row>
-    <row r="81" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -5086,7 +5092,7 @@
       </c>
       <c r="O81" s="5"/>
     </row>
-    <row r="82" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -5127,7 +5133,7 @@
       </c>
       <c r="O82" s="5"/>
     </row>
-    <row r="83" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -5168,7 +5174,7 @@
       </c>
       <c r="O83" s="5"/>
     </row>
-    <row r="84" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -5209,7 +5215,7 @@
       </c>
       <c r="O84" s="5"/>
     </row>
-    <row r="85" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -5250,7 +5256,7 @@
       </c>
       <c r="O85" s="5"/>
     </row>
-    <row r="86" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -5291,7 +5297,7 @@
       </c>
       <c r="O86" s="5"/>
     </row>
-    <row r="87" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -5332,7 +5338,7 @@
       </c>
       <c r="O87" s="5"/>
     </row>
-    <row r="88" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -5373,7 +5379,7 @@
       </c>
       <c r="O88" s="5"/>
     </row>
-    <row r="89" spans="1:15" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -5414,7 +5420,7 @@
       </c>
       <c r="O89" s="5"/>
     </row>
-    <row r="90" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -5455,7 +5461,7 @@
       </c>
       <c r="O90" s="5"/>
     </row>
-    <row r="91" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -5496,7 +5502,7 @@
       </c>
       <c r="O91" s="5"/>
     </row>
-    <row r="92" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -5537,7 +5543,7 @@
       </c>
       <c r="O92" s="5"/>
     </row>
-    <row r="93" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -5578,7 +5584,7 @@
       </c>
       <c r="O93" s="5"/>
     </row>
-    <row r="94" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -5619,7 +5625,7 @@
       </c>
       <c r="O94" s="5"/>
     </row>
-    <row r="95" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -5660,7 +5666,7 @@
       </c>
       <c r="O95" s="5"/>
     </row>
-    <row r="96" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -5701,7 +5707,7 @@
       </c>
       <c r="O96" s="5"/>
     </row>
-    <row r="97" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -5742,7 +5748,7 @@
       </c>
       <c r="O97" s="5"/>
     </row>
-    <row r="98" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -5783,7 +5789,7 @@
       </c>
       <c r="O98" s="5"/>
     </row>
-    <row r="99" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -5824,7 +5830,7 @@
       </c>
       <c r="O99" s="5"/>
     </row>
-    <row r="100" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -5865,7 +5871,7 @@
       </c>
       <c r="O100" s="5"/>
     </row>
-    <row r="101" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -5906,7 +5912,7 @@
       </c>
       <c r="O101" s="5"/>
     </row>
-    <row r="102" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -5947,7 +5953,7 @@
       </c>
       <c r="O102" s="5"/>
     </row>
-    <row r="103" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -5988,7 +5994,7 @@
       </c>
       <c r="O103" s="5"/>
     </row>
-    <row r="104" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -6029,7 +6035,7 @@
       </c>
       <c r="O104" s="5"/>
     </row>
-    <row r="105" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -6070,7 +6076,7 @@
       </c>
       <c r="O105" s="5"/>
     </row>
-    <row r="106" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -6111,7 +6117,7 @@
       </c>
       <c r="O106" s="5"/>
     </row>
-    <row r="107" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -6152,7 +6158,7 @@
       </c>
       <c r="O107" s="5"/>
     </row>
-    <row r="108" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -6193,7 +6199,7 @@
       </c>
       <c r="O108" s="5"/>
     </row>
-    <row r="109" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -6234,7 +6240,7 @@
       </c>
       <c r="O109" s="5"/>
     </row>
-    <row r="110" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -6275,7 +6281,7 @@
       </c>
       <c r="O110" s="5"/>
     </row>
-    <row r="111" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -6316,7 +6322,7 @@
       </c>
       <c r="O111" s="5"/>
     </row>
-    <row r="112" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -6357,7 +6363,7 @@
       </c>
       <c r="O112" s="5"/>
     </row>
-    <row r="113" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -6398,7 +6404,7 @@
       </c>
       <c r="O113" s="5"/>
     </row>
-    <row r="114" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -6439,7 +6445,7 @@
       </c>
       <c r="O114" s="5"/>
     </row>
-    <row r="115" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -6480,7 +6486,7 @@
       </c>
       <c r="O115" s="5"/>
     </row>
-    <row r="116" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -6521,7 +6527,7 @@
       </c>
       <c r="O116" s="5"/>
     </row>
-    <row r="117" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -6562,7 +6568,7 @@
       </c>
       <c r="O117" s="5"/>
     </row>
-    <row r="118" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -6603,7 +6609,7 @@
       </c>
       <c r="O118" s="5"/>
     </row>
-    <row r="119" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -6644,7 +6650,7 @@
       </c>
       <c r="O119" s="5"/>
     </row>
-    <row r="120" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -6685,7 +6691,7 @@
       </c>
       <c r="O120" s="5"/>
     </row>
-    <row r="121" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -6726,7 +6732,7 @@
       </c>
       <c r="O121" s="5"/>
     </row>
-    <row r="122" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -6767,7 +6773,7 @@
       </c>
       <c r="O122" s="5"/>
     </row>
-    <row r="123" spans="1:15" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -6808,7 +6814,7 @@
       </c>
       <c r="O123" s="5"/>
     </row>
-    <row r="124" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -6849,7 +6855,7 @@
       </c>
       <c r="O124" s="5"/>
     </row>
-    <row r="125" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -6890,7 +6896,7 @@
       </c>
       <c r="O125" s="5"/>
     </row>
-    <row r="126" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -6931,7 +6937,7 @@
       </c>
       <c r="O126" s="5"/>
     </row>
-    <row r="127" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -6972,7 +6978,7 @@
       </c>
       <c r="O127" s="5"/>
     </row>
-    <row r="128" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -7013,7 +7019,7 @@
       </c>
       <c r="O128" s="5"/>
     </row>
-    <row r="129" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -7054,7 +7060,7 @@
       </c>
       <c r="O129" s="5"/>
     </row>
-    <row r="130" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -7095,7 +7101,7 @@
       </c>
       <c r="O130" s="5"/>
     </row>
-    <row r="131" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -7136,7 +7142,7 @@
       </c>
       <c r="O131" s="5"/>
     </row>
-    <row r="132" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -7177,7 +7183,7 @@
       </c>
       <c r="O132" s="5"/>
     </row>
-    <row r="133" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -7218,7 +7224,7 @@
       </c>
       <c r="O133" s="5"/>
     </row>
-    <row r="134" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -7259,7 +7265,7 @@
       </c>
       <c r="O134" s="5"/>
     </row>
-    <row r="135" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -7300,7 +7306,7 @@
       </c>
       <c r="O135" s="5"/>
     </row>
-    <row r="136" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -7341,7 +7347,7 @@
       </c>
       <c r="O136" s="5"/>
     </row>
-    <row r="137" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -7382,7 +7388,7 @@
       </c>
       <c r="O137" s="5"/>
     </row>
-    <row r="138" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -7423,7 +7429,7 @@
       </c>
       <c r="O138" s="5"/>
     </row>
-    <row r="139" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -7464,7 +7470,7 @@
       </c>
       <c r="O139" s="5"/>
     </row>
-    <row r="140" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -7505,7 +7511,7 @@
       </c>
       <c r="O140" s="5"/>
     </row>
-    <row r="141" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -7546,7 +7552,7 @@
       </c>
       <c r="O141" s="5"/>
     </row>
-    <row r="142" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -7587,7 +7593,7 @@
       </c>
       <c r="O142" s="5"/>
     </row>
-    <row r="143" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -7628,7 +7634,7 @@
       </c>
       <c r="O143" s="5"/>
     </row>
-    <row r="144" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -7669,7 +7675,7 @@
       </c>
       <c r="O144" s="5"/>
     </row>
-    <row r="145" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -7710,7 +7716,7 @@
       </c>
       <c r="O145" s="5"/>
     </row>
-    <row r="146" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -7751,7 +7757,7 @@
       </c>
       <c r="O146" s="5"/>
     </row>
-    <row r="147" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -7792,7 +7798,7 @@
       </c>
       <c r="O147" s="5"/>
     </row>
-    <row r="148" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -7833,7 +7839,7 @@
       </c>
       <c r="O148" s="5"/>
     </row>
-    <row r="149" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -7874,7 +7880,7 @@
       </c>
       <c r="O149" s="5"/>
     </row>
-    <row r="150" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -7915,7 +7921,7 @@
       </c>
       <c r="O150" s="5"/>
     </row>
-    <row r="151" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -7956,7 +7962,7 @@
       </c>
       <c r="O151" s="5"/>
     </row>
-    <row r="152" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -7997,7 +8003,7 @@
       </c>
       <c r="O152" s="5"/>
     </row>
-    <row r="153" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -8038,7 +8044,7 @@
       </c>
       <c r="O153" s="5"/>
     </row>
-    <row r="154" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -8083,7 +8089,7 @@
       </c>
       <c r="O154" s="5"/>
     </row>
-    <row r="155" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -8128,7 +8134,7 @@
       </c>
       <c r="O155" s="5"/>
     </row>
-    <row r="156" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -8173,7 +8179,7 @@
       </c>
       <c r="O156" s="5"/>
     </row>
-    <row r="157" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -8218,7 +8224,7 @@
       </c>
       <c r="O157" s="5"/>
     </row>
-    <row r="158" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -8263,7 +8269,7 @@
       </c>
       <c r="O158" s="5"/>
     </row>
-    <row r="159" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -8308,7 +8314,7 @@
       </c>
       <c r="O159" s="5"/>
     </row>
-    <row r="160" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -8353,7 +8359,7 @@
       </c>
       <c r="O160" s="5"/>
     </row>
-    <row r="161" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -8398,7 +8404,7 @@
       </c>
       <c r="O161" s="5"/>
     </row>
-    <row r="162" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -8443,7 +8449,7 @@
       </c>
       <c r="O162" s="5"/>
     </row>
-    <row r="163" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -8488,7 +8494,7 @@
       </c>
       <c r="O163" s="5"/>
     </row>
-    <row r="164" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -8533,7 +8539,7 @@
       </c>
       <c r="O164" s="5"/>
     </row>
-    <row r="165" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -8578,7 +8584,7 @@
       </c>
       <c r="O165" s="5"/>
     </row>
-    <row r="166" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -8623,7 +8629,7 @@
       </c>
       <c r="O166" s="5"/>
     </row>
-    <row r="167" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -8668,7 +8674,7 @@
       </c>
       <c r="O167" s="5"/>
     </row>
-    <row r="168" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -8713,7 +8719,7 @@
       </c>
       <c r="O168" s="5"/>
     </row>
-    <row r="169" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -8758,7 +8764,7 @@
       </c>
       <c r="O169" s="5"/>
     </row>
-    <row r="170" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -8803,7 +8809,7 @@
       </c>
       <c r="O170" s="5"/>
     </row>
-    <row r="171" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -8848,7 +8854,7 @@
       </c>
       <c r="O171" s="5"/>
     </row>
-    <row r="172" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -8893,7 +8899,7 @@
       </c>
       <c r="O172" s="5"/>
     </row>
-    <row r="173" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -8938,7 +8944,7 @@
       </c>
       <c r="O173" s="5"/>
     </row>
-    <row r="174" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -8983,7 +8989,7 @@
       </c>
       <c r="O174" s="5"/>
     </row>
-    <row r="175" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -9028,7 +9034,7 @@
       </c>
       <c r="O175" s="5"/>
     </row>
-    <row r="176" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -9073,7 +9079,7 @@
       </c>
       <c r="O176" s="5"/>
     </row>
-    <row r="177" spans="1:15" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -9118,7 +9124,7 @@
       </c>
       <c r="O177" s="5"/>
     </row>
-    <row r="178" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -9163,7 +9169,7 @@
       </c>
       <c r="O178" s="5"/>
     </row>
-    <row r="179" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -9208,7 +9214,7 @@
       </c>
       <c r="O179" s="5"/>
     </row>
-    <row r="180" spans="1:15" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -9253,7 +9259,7 @@
       </c>
       <c r="O180" s="5"/>
     </row>
-    <row r="181" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -9298,7 +9304,7 @@
       </c>
       <c r="O181" s="5"/>
     </row>
-    <row r="182" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -9343,7 +9349,7 @@
       </c>
       <c r="O182" s="5"/>
     </row>
-    <row r="183" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -9388,7 +9394,7 @@
       </c>
       <c r="O183" s="5"/>
     </row>
-    <row r="184" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -9433,7 +9439,7 @@
       </c>
       <c r="O184" s="5"/>
     </row>
-    <row r="185" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -9474,7 +9480,7 @@
       </c>
       <c r="O185" s="5"/>
     </row>
-    <row r="186" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -9515,7 +9521,7 @@
       </c>
       <c r="O186" s="5"/>
     </row>
-    <row r="187" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -9556,7 +9562,7 @@
       </c>
       <c r="O187" s="5"/>
     </row>
-    <row r="188" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -9597,7 +9603,7 @@
       </c>
       <c r="O188" s="5"/>
     </row>
-    <row r="189" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -9638,7 +9644,7 @@
       </c>
       <c r="O189" s="5"/>
     </row>
-    <row r="190" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -9679,7 +9685,7 @@
       </c>
       <c r="O190" s="5"/>
     </row>
-    <row r="191" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -9720,7 +9726,7 @@
       </c>
       <c r="O191" s="5"/>
     </row>
-    <row r="192" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -9761,7 +9767,7 @@
       </c>
       <c r="O192" s="5"/>
     </row>
-    <row r="193" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>192</v>
       </c>
@@ -9802,7 +9808,7 @@
       </c>
       <c r="O193" s="5"/>
     </row>
-    <row r="194" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>193</v>
       </c>
@@ -9843,7 +9849,7 @@
       </c>
       <c r="O194" s="5"/>
     </row>
-    <row r="195" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>194</v>
       </c>
@@ -9884,7 +9890,7 @@
       </c>
       <c r="O195" s="5"/>
     </row>
-    <row r="196" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>195</v>
       </c>
@@ -9925,7 +9931,7 @@
       </c>
       <c r="O196" s="5"/>
     </row>
-    <row r="197" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>196</v>
       </c>
@@ -9966,7 +9972,7 @@
       </c>
       <c r="O197" s="5"/>
     </row>
-    <row r="198" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>197</v>
       </c>
@@ -10007,7 +10013,7 @@
       </c>
       <c r="O198" s="5"/>
     </row>
-    <row r="199" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>198</v>
       </c>
@@ -10048,7 +10054,7 @@
       </c>
       <c r="O199" s="5"/>
     </row>
-    <row r="200" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>199</v>
       </c>
@@ -10089,7 +10095,7 @@
       </c>
       <c r="O200" s="5"/>
     </row>
-    <row r="201" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>200</v>
       </c>
@@ -10130,7 +10136,7 @@
       </c>
       <c r="O201" s="5"/>
     </row>
-    <row r="202" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>201</v>
       </c>
@@ -10171,7 +10177,7 @@
       </c>
       <c r="O202" s="5"/>
     </row>
-    <row r="203" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>202</v>
       </c>
@@ -10212,7 +10218,7 @@
       </c>
       <c r="O203" s="5"/>
     </row>
-    <row r="204" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>203</v>
       </c>
@@ -10253,7 +10259,7 @@
       </c>
       <c r="O204" s="5"/>
     </row>
-    <row r="205" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>204</v>
       </c>
@@ -10294,7 +10300,7 @@
       </c>
       <c r="O205" s="5"/>
     </row>
-    <row r="206" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>205</v>
       </c>
@@ -10335,7 +10341,7 @@
       </c>
       <c r="O206" s="5"/>
     </row>
-    <row r="207" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -10376,7 +10382,7 @@
       </c>
       <c r="O207" s="5"/>
     </row>
-    <row r="208" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>207</v>
       </c>
@@ -10417,7 +10423,7 @@
       </c>
       <c r="O208" s="5"/>
     </row>
-    <row r="209" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>208</v>
       </c>
@@ -10458,7 +10464,7 @@
       </c>
       <c r="O209" s="5"/>
     </row>
-    <row r="210" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>209</v>
       </c>
@@ -10499,7 +10505,7 @@
       </c>
       <c r="O210" s="5"/>
     </row>
-    <row r="211" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>210</v>
       </c>
@@ -10540,7 +10546,7 @@
       </c>
       <c r="O211" s="5"/>
     </row>
-    <row r="212" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>211</v>
       </c>
@@ -10581,7 +10587,7 @@
       </c>
       <c r="O212" s="5"/>
     </row>
-    <row r="213" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>212</v>
       </c>
@@ -10663,7 +10669,7 @@
       </c>
       <c r="O214" s="5"/>
     </row>
-    <row r="215" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -10704,7 +10710,7 @@
       </c>
       <c r="O215" s="5"/>
     </row>
-    <row r="216" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>215</v>
       </c>
@@ -10745,7 +10751,7 @@
       </c>
       <c r="O216" s="5"/>
     </row>
-    <row r="217" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>216</v>
       </c>
@@ -10786,7 +10792,7 @@
       </c>
       <c r="O217" s="5"/>
     </row>
-    <row r="218" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>217</v>
       </c>
@@ -10827,7 +10833,7 @@
       </c>
       <c r="O218" s="5"/>
     </row>
-    <row r="219" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>218</v>
       </c>
@@ -10868,7 +10874,7 @@
       </c>
       <c r="O219" s="5"/>
     </row>
-    <row r="220" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>219</v>
       </c>
@@ -10909,7 +10915,7 @@
       </c>
       <c r="O220" s="5"/>
     </row>
-    <row r="221" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>220</v>
       </c>
@@ -10950,7 +10956,7 @@
       </c>
       <c r="O221" s="5"/>
     </row>
-    <row r="222" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>221</v>
       </c>
@@ -10991,7 +10997,7 @@
       </c>
       <c r="O222" s="5"/>
     </row>
-    <row r="223" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>222</v>
       </c>
@@ -11032,7 +11038,7 @@
       </c>
       <c r="O223" s="5"/>
     </row>
-    <row r="224" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>223</v>
       </c>
@@ -11073,7 +11079,7 @@
       </c>
       <c r="O224" s="5"/>
     </row>
-    <row r="225" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -11114,7 +11120,7 @@
       </c>
       <c r="O225" s="5"/>
     </row>
-    <row r="226" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -11155,7 +11161,7 @@
       </c>
       <c r="O226" s="5"/>
     </row>
-    <row r="227" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>226</v>
       </c>
@@ -11196,7 +11202,7 @@
       </c>
       <c r="O227" s="5"/>
     </row>
-    <row r="228" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>227</v>
       </c>
@@ -11237,7 +11243,7 @@
       </c>
       <c r="O228" s="5"/>
     </row>
-    <row r="229" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>228</v>
       </c>
@@ -11278,7 +11284,7 @@
       </c>
       <c r="O229" s="5"/>
     </row>
-    <row r="230" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>229</v>
       </c>
@@ -11319,7 +11325,7 @@
       </c>
       <c r="O230" s="5"/>
     </row>
-    <row r="231" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>230</v>
       </c>
@@ -11360,7 +11366,7 @@
       </c>
       <c r="O231" s="5"/>
     </row>
-    <row r="232" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>231</v>
       </c>
@@ -11401,7 +11407,7 @@
       </c>
       <c r="O232" s="5"/>
     </row>
-    <row r="233" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>232</v>
       </c>
@@ -11442,7 +11448,7 @@
       </c>
       <c r="O233" s="5"/>
     </row>
-    <row r="234" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>233</v>
       </c>
@@ -11483,7 +11489,7 @@
       </c>
       <c r="O234" s="5"/>
     </row>
-    <row r="235" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>234</v>
       </c>
@@ -11524,7 +11530,7 @@
       </c>
       <c r="O235" s="5"/>
     </row>
-    <row r="236" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>235</v>
       </c>
@@ -11565,7 +11571,7 @@
       </c>
       <c r="O236" s="5"/>
     </row>
-    <row r="237" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>236</v>
       </c>
@@ -11606,7 +11612,7 @@
       </c>
       <c r="O237" s="5"/>
     </row>
-    <row r="238" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>237</v>
       </c>
@@ -11647,7 +11653,7 @@
       </c>
       <c r="O238" s="5"/>
     </row>
-    <row r="239" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>238</v>
       </c>
@@ -11688,7 +11694,7 @@
       </c>
       <c r="O239" s="5"/>
     </row>
-    <row r="240" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>239</v>
       </c>
@@ -11729,7 +11735,7 @@
       </c>
       <c r="O240" s="5"/>
     </row>
-    <row r="241" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>240</v>
       </c>
@@ -11770,7 +11776,7 @@
       </c>
       <c r="O241" s="5"/>
     </row>
-    <row r="242" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>241</v>
       </c>
@@ -11811,7 +11817,7 @@
       </c>
       <c r="O242" s="5"/>
     </row>
-    <row r="243" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>242</v>
       </c>
@@ -11852,7 +11858,7 @@
       </c>
       <c r="O243" s="5"/>
     </row>
-    <row r="244" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>243</v>
       </c>
@@ -11893,7 +11899,7 @@
       </c>
       <c r="O244" s="5"/>
     </row>
-    <row r="245" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>244</v>
       </c>
@@ -11934,7 +11940,7 @@
       </c>
       <c r="O245" s="5"/>
     </row>
-    <row r="246" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>245</v>
       </c>
@@ -11975,7 +11981,7 @@
       </c>
       <c r="O246" s="5"/>
     </row>
-    <row r="247" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>246</v>
       </c>
@@ -12016,7 +12022,7 @@
       </c>
       <c r="O247" s="5"/>
     </row>
-    <row r="248" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>247</v>
       </c>
@@ -12057,7 +12063,7 @@
       </c>
       <c r="O248" s="5"/>
     </row>
-    <row r="249" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>248</v>
       </c>
@@ -12098,7 +12104,7 @@
       </c>
       <c r="O249" s="5"/>
     </row>
-    <row r="250" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>249</v>
       </c>
@@ -12139,7 +12145,7 @@
       </c>
       <c r="O250" s="5"/>
     </row>
-    <row r="251" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>250</v>
       </c>
@@ -12180,7 +12186,7 @@
       </c>
       <c r="O251" s="5"/>
     </row>
-    <row r="252" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>251</v>
       </c>
@@ -12221,7 +12227,7 @@
       </c>
       <c r="O252" s="5"/>
     </row>
-    <row r="253" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>252</v>
       </c>
@@ -12262,7 +12268,7 @@
       </c>
       <c r="O253" s="5"/>
     </row>
-    <row r="254" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>253</v>
       </c>
@@ -12303,7 +12309,7 @@
       </c>
       <c r="O254" s="5"/>
     </row>
-    <row r="255" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>254</v>
       </c>
@@ -12344,7 +12350,7 @@
       </c>
       <c r="O255" s="5"/>
     </row>
-    <row r="256" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>255</v>
       </c>
@@ -12385,7 +12391,7 @@
       </c>
       <c r="O256" s="5"/>
     </row>
-    <row r="257" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>256</v>
       </c>
@@ -12426,7 +12432,7 @@
       </c>
       <c r="O257" s="5"/>
     </row>
-    <row r="258" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>257</v>
       </c>
@@ -12467,7 +12473,7 @@
       </c>
       <c r="O258" s="5"/>
     </row>
-    <row r="259" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>258</v>
       </c>
@@ -12508,7 +12514,7 @@
       </c>
       <c r="O259" s="5"/>
     </row>
-    <row r="260" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>259</v>
       </c>
@@ -12549,7 +12555,7 @@
       </c>
       <c r="O260" s="5"/>
     </row>
-    <row r="261" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>260</v>
       </c>
@@ -12590,7 +12596,7 @@
       </c>
       <c r="O261" s="5"/>
     </row>
-    <row r="262" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>261</v>
       </c>
@@ -12631,7 +12637,7 @@
       </c>
       <c r="O262" s="5"/>
     </row>
-    <row r="263" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>262</v>
       </c>
@@ -12672,7 +12678,7 @@
       </c>
       <c r="O263" s="5"/>
     </row>
-    <row r="264" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>263</v>
       </c>
@@ -12713,7 +12719,7 @@
       </c>
       <c r="O264" s="5"/>
     </row>
-    <row r="265" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>264</v>
       </c>
@@ -12754,7 +12760,7 @@
       </c>
       <c r="O265" s="5"/>
     </row>
-    <row r="266" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>265</v>
       </c>
@@ -12795,7 +12801,7 @@
       </c>
       <c r="O266" s="5"/>
     </row>
-    <row r="267" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>266</v>
       </c>
@@ -12836,7 +12842,7 @@
       </c>
       <c r="O267" s="5"/>
     </row>
-    <row r="268" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>267</v>
       </c>
@@ -12877,7 +12883,7 @@
       </c>
       <c r="O268" s="5"/>
     </row>
-    <row r="269" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>268</v>
       </c>
@@ -12918,7 +12924,7 @@
       </c>
       <c r="O269" s="5"/>
     </row>
-    <row r="270" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>269</v>
       </c>
@@ -12959,7 +12965,7 @@
       </c>
       <c r="O270" s="5"/>
     </row>
-    <row r="271" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>270</v>
       </c>
@@ -13000,7 +13006,7 @@
       </c>
       <c r="O271" s="5"/>
     </row>
-    <row r="272" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>271</v>
       </c>
@@ -13041,7 +13047,7 @@
       </c>
       <c r="O272" s="5"/>
     </row>
-    <row r="273" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>272</v>
       </c>
@@ -13082,7 +13088,7 @@
       </c>
       <c r="O273" s="5"/>
     </row>
-    <row r="274" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>273</v>
       </c>
@@ -13123,7 +13129,7 @@
       </c>
       <c r="O274" s="5"/>
     </row>
-    <row r="275" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>274</v>
       </c>
@@ -13164,7 +13170,7 @@
       </c>
       <c r="O275" s="5"/>
     </row>
-    <row r="276" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>275</v>
       </c>
@@ -13205,7 +13211,7 @@
       </c>
       <c r="O276" s="5"/>
     </row>
-    <row r="277" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>276</v>
       </c>
@@ -13246,7 +13252,7 @@
       </c>
       <c r="O277" s="5"/>
     </row>
-    <row r="278" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>277</v>
       </c>
@@ -13287,7 +13293,7 @@
       </c>
       <c r="O278" s="5"/>
     </row>
-    <row r="279" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>278</v>
       </c>
@@ -13328,7 +13334,7 @@
       </c>
       <c r="O279" s="5"/>
     </row>
-    <row r="280" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>279</v>
       </c>
@@ -13369,7 +13375,7 @@
       </c>
       <c r="O280" s="5"/>
     </row>
-    <row r="281" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>280</v>
       </c>
@@ -13410,7 +13416,7 @@
       </c>
       <c r="O281" s="5"/>
     </row>
-    <row r="282" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>281</v>
       </c>
@@ -13451,7 +13457,7 @@
       </c>
       <c r="O282" s="5"/>
     </row>
-    <row r="283" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>282</v>
       </c>
@@ -13492,7 +13498,7 @@
       </c>
       <c r="O283" s="5"/>
     </row>
-    <row r="284" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>283</v>
       </c>
@@ -13533,7 +13539,7 @@
       </c>
       <c r="O284" s="5"/>
     </row>
-    <row r="285" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>284</v>
       </c>
@@ -13574,7 +13580,7 @@
       </c>
       <c r="O285" s="5"/>
     </row>
-    <row r="286" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>285</v>
       </c>
@@ -13615,7 +13621,7 @@
       </c>
       <c r="O286" s="5"/>
     </row>
-    <row r="287" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>286</v>
       </c>
@@ -13656,7 +13662,7 @@
       </c>
       <c r="O287" s="5"/>
     </row>
-    <row r="288" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>287</v>
       </c>
@@ -13697,7 +13703,7 @@
       </c>
       <c r="O288" s="5"/>
     </row>
-    <row r="289" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>288</v>
       </c>
@@ -13738,7 +13744,7 @@
       </c>
       <c r="O289" s="5"/>
     </row>
-    <row r="290" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>289</v>
       </c>
@@ -13779,7 +13785,7 @@
       </c>
       <c r="O290" s="5"/>
     </row>
-    <row r="291" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>290</v>
       </c>
@@ -13820,7 +13826,7 @@
       </c>
       <c r="O291" s="5"/>
     </row>
-    <row r="292" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>291</v>
       </c>
@@ -13861,7 +13867,7 @@
       </c>
       <c r="O292" s="5"/>
     </row>
-    <row r="293" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>292</v>
       </c>
@@ -13902,7 +13908,7 @@
       </c>
       <c r="O293" s="5"/>
     </row>
-    <row r="294" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>293</v>
       </c>
@@ -13943,7 +13949,7 @@
       </c>
       <c r="O294" s="5"/>
     </row>
-    <row r="295" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>294</v>
       </c>
@@ -13984,7 +13990,7 @@
       </c>
       <c r="O295" s="5"/>
     </row>
-    <row r="296" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>295</v>
       </c>
@@ -14025,7 +14031,7 @@
       </c>
       <c r="O296" s="5"/>
     </row>
-    <row r="297" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>296</v>
       </c>
@@ -14066,7 +14072,7 @@
       </c>
       <c r="O297" s="5"/>
     </row>
-    <row r="298" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>297</v>
       </c>
@@ -14107,7 +14113,7 @@
       </c>
       <c r="O298" s="5"/>
     </row>
-    <row r="299" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>298</v>
       </c>
@@ -14148,7 +14154,7 @@
       </c>
       <c r="O299" s="5"/>
     </row>
-    <row r="300" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>299</v>
       </c>
@@ -14189,7 +14195,7 @@
       </c>
       <c r="O300" s="5"/>
     </row>
-    <row r="301" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>300</v>
       </c>
@@ -14230,7 +14236,7 @@
       </c>
       <c r="O301" s="5"/>
     </row>
-    <row r="302" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>301</v>
       </c>
@@ -14271,7 +14277,7 @@
       </c>
       <c r="O302" s="5"/>
     </row>
-    <row r="303" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>302</v>
       </c>
@@ -14312,7 +14318,7 @@
       </c>
       <c r="O303" s="5"/>
     </row>
-    <row r="304" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>303</v>
       </c>
@@ -14353,7 +14359,7 @@
       </c>
       <c r="O304" s="5"/>
     </row>
-    <row r="305" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>304</v>
       </c>
@@ -14394,7 +14400,7 @@
       </c>
       <c r="O305" s="5"/>
     </row>
-    <row r="306" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>305</v>
       </c>
@@ -14435,7 +14441,7 @@
       </c>
       <c r="O306" s="5"/>
     </row>
-    <row r="307" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>306</v>
       </c>
@@ -14476,7 +14482,7 @@
       </c>
       <c r="O307" s="5"/>
     </row>
-    <row r="308" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>307</v>
       </c>
@@ -14517,7 +14523,7 @@
       </c>
       <c r="O308" s="5"/>
     </row>
-    <row r="309" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>308</v>
       </c>
@@ -14558,7 +14564,7 @@
       </c>
       <c r="O309" s="5"/>
     </row>
-    <row r="310" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>309</v>
       </c>
@@ -14599,7 +14605,7 @@
       </c>
       <c r="O310" s="5"/>
     </row>
-    <row r="311" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>310</v>
       </c>
@@ -14640,7 +14646,7 @@
       </c>
       <c r="O311" s="5"/>
     </row>
-    <row r="312" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>311</v>
       </c>
@@ -14681,7 +14687,7 @@
       </c>
       <c r="O312" s="5"/>
     </row>
-    <row r="313" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>312</v>
       </c>
@@ -14722,7 +14728,7 @@
       </c>
       <c r="O313" s="5"/>
     </row>
-    <row r="314" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>313</v>
       </c>
@@ -14763,7 +14769,7 @@
       </c>
       <c r="O314" s="5"/>
     </row>
-    <row r="315" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>314</v>
       </c>
@@ -14804,7 +14810,7 @@
       </c>
       <c r="O315" s="5"/>
     </row>
-    <row r="316" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>315</v>
       </c>
@@ -14845,7 +14851,7 @@
       </c>
       <c r="O316" s="5"/>
     </row>
-    <row r="317" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>316</v>
       </c>
@@ -14886,7 +14892,7 @@
       </c>
       <c r="O317" s="5"/>
     </row>
-    <row r="318" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>317</v>
       </c>
@@ -14927,7 +14933,7 @@
       </c>
       <c r="O318" s="5"/>
     </row>
-    <row r="319" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <v>318</v>
       </c>
@@ -14968,7 +14974,7 @@
       </c>
       <c r="O319" s="5"/>
     </row>
-    <row r="320" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <v>319</v>
       </c>
@@ -15009,7 +15015,7 @@
       </c>
       <c r="O320" s="5"/>
     </row>
-    <row r="321" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <v>320</v>
       </c>
@@ -15050,7 +15056,7 @@
       </c>
       <c r="O321" s="5"/>
     </row>
-    <row r="322" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>321</v>
       </c>
@@ -15091,7 +15097,7 @@
       </c>
       <c r="O322" s="5"/>
     </row>
-    <row r="323" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>322</v>
       </c>
@@ -15132,7 +15138,7 @@
       </c>
       <c r="O323" s="5"/>
     </row>
-    <row r="324" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>323</v>
       </c>
@@ -15173,7 +15179,7 @@
       </c>
       <c r="O324" s="5"/>
     </row>
-    <row r="325" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>324</v>
       </c>
@@ -15214,7 +15220,7 @@
       </c>
       <c r="O325" s="5"/>
     </row>
-    <row r="326" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>325</v>
       </c>
@@ -15255,7 +15261,7 @@
       </c>
       <c r="O326" s="5"/>
     </row>
-    <row r="327" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>326</v>
       </c>
@@ -15296,7 +15302,7 @@
       </c>
       <c r="O327" s="5"/>
     </row>
-    <row r="328" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>327</v>
       </c>
@@ -15337,7 +15343,7 @@
       </c>
       <c r="O328" s="5"/>
     </row>
-    <row r="329" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>328</v>
       </c>
@@ -15378,7 +15384,7 @@
       </c>
       <c r="O329" s="5"/>
     </row>
-    <row r="330" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>329</v>
       </c>
@@ -15419,7 +15425,7 @@
       </c>
       <c r="O330" s="5"/>
     </row>
-    <row r="331" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>330</v>
       </c>
@@ -15460,7 +15466,7 @@
       </c>
       <c r="O331" s="5"/>
     </row>
-    <row r="332" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>331</v>
       </c>
@@ -15501,7 +15507,7 @@
       </c>
       <c r="O332" s="5"/>
     </row>
-    <row r="333" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>332</v>
       </c>
@@ -15542,7 +15548,7 @@
       </c>
       <c r="O333" s="5"/>
     </row>
-    <row r="334" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>333</v>
       </c>
@@ -15583,7 +15589,7 @@
       </c>
       <c r="O334" s="5"/>
     </row>
-    <row r="335" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>334</v>
       </c>
@@ -15624,7 +15630,7 @@
       </c>
       <c r="O335" s="5"/>
     </row>
-    <row r="336" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>335</v>
       </c>
@@ -15665,7 +15671,7 @@
       </c>
       <c r="O336" s="5"/>
     </row>
-    <row r="337" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>336</v>
       </c>
@@ -15710,7 +15716,7 @@
       </c>
       <c r="O337" s="5"/>
     </row>
-    <row r="338" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>337</v>
       </c>
@@ -15751,7 +15757,7 @@
       </c>
       <c r="O338" s="5"/>
     </row>
-    <row r="339" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>338</v>
       </c>
@@ -15793,6 +15799,13 @@
       <c r="O339" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O339">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="K33.1910"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>